--- a/workflow/python/output/xlsx/covid_disparities_output_2020-06-30.xlsx
+++ b/workflow/python/output/xlsx/covid_disparities_output_2020-06-30.xlsx
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="C2" t="n">
-        <v>108768</v>
+        <v>108882</v>
       </c>
       <c r="D2" t="n">
-        <v>8095</v>
+        <v>8054</v>
       </c>
       <c r="E2" t="n">
-        <v>10190</v>
+        <v>10209</v>
       </c>
       <c r="F2" t="n">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G2" t="n">
-        <v>9.369999999999999</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>8.23</v>
@@ -544,13 +544,13 @@
         <v>44011</v>
       </c>
       <c r="C3" t="n">
-        <v>32253</v>
+        <v>32824</v>
       </c>
       <c r="D3" t="n">
-        <v>1320</v>
+        <v>1332</v>
       </c>
       <c r="E3" t="n">
-        <v>1331</v>
+        <v>1343</v>
       </c>
       <c r="F3" t="n">
         <v>42</v>
@@ -580,25 +580,25 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="C4" t="n">
-        <v>32511</v>
+        <v>32715</v>
       </c>
       <c r="D4" t="n">
-        <v>1682</v>
+        <v>1690</v>
       </c>
       <c r="E4" t="n">
-        <v>1762</v>
+        <v>1769</v>
       </c>
       <c r="F4" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G4" t="n">
-        <v>5.42</v>
+        <v>5.41</v>
       </c>
       <c r="H4" t="n">
-        <v>6.48</v>
+        <v>6.51</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -619,25 +619,25 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="C5" t="n">
-        <v>143805</v>
+        <v>149781</v>
       </c>
       <c r="D5" t="n">
-        <v>3447</v>
+        <v>3505</v>
       </c>
       <c r="E5" t="n">
-        <v>20484</v>
+        <v>21268</v>
       </c>
       <c r="F5" t="n">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="G5" t="n">
-        <v>14.24</v>
+        <v>14.2</v>
       </c>
       <c r="H5" t="n">
-        <v>19.99</v>
+        <v>19.89</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -658,20 +658,20 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="C6" t="n">
-        <v>3219</v>
+        <v>3253</v>
       </c>
       <c r="D6" t="n">
         <v>105</v>
       </c>
       <c r="E6" t="n">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>27.07</v>
+        <v>26.87</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="b">
@@ -693,25 +693,25 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="C7" t="n">
-        <v>79417</v>
+        <v>81291</v>
       </c>
       <c r="D7" t="n">
-        <v>2784</v>
+        <v>2805</v>
       </c>
       <c r="E7" t="n">
-        <v>22417</v>
+        <v>23294</v>
       </c>
       <c r="F7" t="n">
-        <v>1320</v>
+        <v>1328</v>
       </c>
       <c r="G7" t="n">
-        <v>28.23</v>
+        <v>28.66</v>
       </c>
       <c r="H7" t="n">
-        <v>47.41</v>
+        <v>47.34</v>
       </c>
       <c r="I7" t="b">
         <v>1</v>
@@ -732,25 +732,25 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="C8" t="n">
-        <v>26567</v>
+        <v>27247</v>
       </c>
       <c r="D8" t="n">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="E8" t="n">
-        <v>13261</v>
+        <v>13577</v>
       </c>
       <c r="F8" t="n">
-        <v>1076</v>
+        <v>1090</v>
       </c>
       <c r="G8" t="n">
-        <v>49.92</v>
+        <v>49.83</v>
       </c>
       <c r="H8" t="n">
-        <v>208.12</v>
+        <v>208.41</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -770,36 +770,22 @@
           <t>California - Los Angeles</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>44010</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100772</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3326</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2818</v>
-      </c>
-      <c r="F9" t="n">
-        <v>353</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H9" t="n">
-        <v>10.61</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Success!</t>
+          <t>An error occurred. ... JSONDecodeError('Expecting property name enclosed in double quotes: line 9 column 13 (char 313)')</t>
         </is>
       </c>
     </row>
@@ -810,21 +796,21 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>21664</t>
+          <t>22217</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>172</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>600</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -855,25 +841,25 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="C11" t="n">
-        <v>11232</v>
+        <v>11397</v>
       </c>
       <c r="D11" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E11" t="n">
-        <v>3163</v>
+        <v>3230</v>
       </c>
       <c r="F11" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G11" t="n">
-        <v>30.45</v>
+        <v>30.6</v>
       </c>
       <c r="H11" t="n">
-        <v>40.11</v>
+        <v>40.28</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -894,22 +880,22 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="C12" t="n">
-        <v>21290</v>
+        <v>21361</v>
       </c>
       <c r="D12" t="n">
         <v>662</v>
       </c>
       <c r="E12" t="n">
-        <v>2537</v>
+        <v>2548</v>
       </c>
       <c r="F12" t="n">
         <v>85</v>
       </c>
       <c r="G12" t="n">
-        <v>11.92</v>
+        <v>11.93</v>
       </c>
       <c r="H12" t="n">
         <v>12.84</v>
@@ -972,25 +958,25 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="C14" t="n">
-        <v>62189</v>
+        <v>62787</v>
       </c>
       <c r="D14" t="n">
-        <v>1740</v>
+        <v>1763</v>
       </c>
       <c r="E14" t="n">
-        <v>8838</v>
+        <v>8931</v>
       </c>
       <c r="F14" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G14" t="n">
-        <v>14.21</v>
+        <v>14.22</v>
       </c>
       <c r="H14" t="n">
-        <v>21.9</v>
+        <v>21.84</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
@@ -1050,25 +1036,25 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>44010</v>
+        <v>44012</v>
       </c>
       <c r="C16" t="n">
-        <v>10248</v>
+        <v>10327</v>
       </c>
       <c r="D16" t="n">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E16" t="n">
-        <v>5117</v>
+        <v>5144</v>
       </c>
       <c r="F16" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G16" t="n">
-        <v>49.93</v>
+        <v>49.81</v>
       </c>
       <c r="H16" t="n">
-        <v>73.45</v>
+        <v>73.5</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -1089,25 +1075,25 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="C17" t="n">
-        <v>11376</v>
+        <v>11474</v>
       </c>
       <c r="D17" t="n">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E17" t="n">
-        <v>3007</v>
+        <v>3020</v>
       </c>
       <c r="F17" t="n">
         <v>130</v>
       </c>
       <c r="G17" t="n">
-        <v>26.43</v>
+        <v>26.32</v>
       </c>
       <c r="H17" t="n">
-        <v>25.64</v>
+        <v>25.54</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -1128,25 +1114,25 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="C18" t="n">
-        <v>36682</v>
+        <v>37536</v>
       </c>
       <c r="D18" t="n">
-        <v>905</v>
+        <v>926</v>
       </c>
       <c r="E18" t="n">
-        <v>13740</v>
+        <v>14043</v>
       </c>
       <c r="F18" t="n">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="G18" t="n">
-        <v>47.78</v>
+        <v>47.54</v>
       </c>
       <c r="H18" t="n">
-        <v>47.49</v>
+        <v>47.22</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -1167,20 +1153,20 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="C19" t="n">
-        <v>11982</v>
+        <v>12147</v>
       </c>
       <c r="D19" t="n">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="E19" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="b">
@@ -1202,7 +1188,7 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -1241,25 +1227,25 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="C21" t="n">
-        <v>63424</v>
+        <v>63794</v>
       </c>
       <c r="D21" t="n">
-        <v>5838</v>
+        <v>5869</v>
       </c>
       <c r="E21" t="n">
-        <v>19541</v>
+        <v>19626</v>
       </c>
       <c r="F21" t="n">
-        <v>2341</v>
+        <v>2348</v>
       </c>
       <c r="G21" t="n">
-        <v>30.81</v>
+        <v>30.76</v>
       </c>
       <c r="H21" t="n">
-        <v>40.1</v>
+        <v>40.01</v>
       </c>
       <c r="I21" t="b">
         <v>1</v>
@@ -1280,22 +1266,22 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="C22" t="n">
-        <v>904</v>
+        <v>940</v>
       </c>
       <c r="D22" t="n">
         <v>14</v>
       </c>
       <c r="E22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1319,26 +1305,26 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>146393</t>
+          <t>150216</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>5751</t>
+          <t>5811</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6445</t>
+          <t>6557</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>544</t>
+          <t>551</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1434,25 +1420,25 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="C26" t="n">
-        <v>35861</v>
+        <v>36303</v>
       </c>
       <c r="D26" t="n">
-        <v>1435</v>
+        <v>1441</v>
       </c>
       <c r="E26" t="n">
-        <v>7503</v>
+        <v>7565</v>
       </c>
       <c r="F26" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G26" t="n">
-        <v>20.92</v>
+        <v>20.84</v>
       </c>
       <c r="H26" t="n">
-        <v>8.220000000000001</v>
+        <v>8.33</v>
       </c>
       <c r="I26" t="b">
         <v>1</v>
@@ -1473,25 +1459,25 @@
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="C27" t="n">
-        <v>15347</v>
+        <v>15624</v>
       </c>
       <c r="D27" t="n">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="E27" t="n">
-        <v>1816</v>
+        <v>1543</v>
       </c>
       <c r="F27" t="n">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="G27" t="n">
-        <v>17.19</v>
+        <v>14.22</v>
       </c>
       <c r="H27" t="n">
-        <v>4.18</v>
+        <v>16.1</v>
       </c>
       <c r="I27" t="b">
         <v>0</v>
@@ -1512,25 +1498,25 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="C28" t="n">
-        <v>45228</v>
+        <v>45594</v>
       </c>
       <c r="D28" t="n">
-        <v>2432</v>
+        <v>2448</v>
       </c>
       <c r="E28" t="n">
-        <v>5595</v>
+        <v>5614</v>
       </c>
       <c r="F28" t="n">
         <v>355</v>
       </c>
       <c r="G28" t="n">
-        <v>12.37</v>
+        <v>12.31</v>
       </c>
       <c r="H28" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="I28" t="b">
         <v>1</v>
@@ -1618,22 +1604,22 @@
         <v>44012</v>
       </c>
       <c r="C31" t="n">
-        <v>28058</v>
+        <v>28659</v>
       </c>
       <c r="D31" t="n">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="E31" t="n">
-        <v>4934</v>
+        <v>5022</v>
       </c>
       <c r="F31" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G31" t="n">
-        <v>19.65</v>
+        <v>19.54</v>
       </c>
       <c r="H31" t="n">
-        <v>23.92</v>
+        <v>23.8</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>

--- a/workflow/python/output/xlsx/covid_disparities_output_2020-06-30.xlsx
+++ b/workflow/python/output/xlsx/covid_disparities_output_2020-06-30.xlsx
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44011</v>
+        <v>44012</v>
       </c>
       <c r="C3" t="n">
         <v>32824</v>
